--- a/data/trans_orig/P21C-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P21C-Provincia-trans_orig.xlsx
@@ -744,7 +744,7 @@
         <v>25784</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>21230</v>
+        <v>19802</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>27331</v>
@@ -753,7 +753,7 @@
         <v>0.9433930044352744</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7767608854235798</v>
+        <v>0.7245131077355814</v>
       </c>
       <c r="I4" s="6" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         <v>36592</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>32725</v>
+        <v>33183</v>
       </c>
       <c r="M4" s="5" t="n">
         <v>37665</v>
@@ -774,7 +774,7 @@
         <v>0.9715063610454038</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8688311575406887</v>
+        <v>0.8810140078820775</v>
       </c>
       <c r="P4" s="6" t="n">
         <v>1</v>
@@ -786,7 +786,7 @@
         <v>62375</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>55849</v>
+        <v>54611</v>
       </c>
       <c r="T4" s="5" t="n">
         <v>64995</v>
@@ -795,7 +795,7 @@
         <v>0.9596846328009935</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.859286082187938</v>
+        <v>0.8402312884137531</v>
       </c>
       <c r="W4" s="6" t="n">
         <v>1</v>
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6101</v>
+        <v>7529</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05660699556472563</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2232391145764202</v>
+        <v>0.2754868922644187</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>4940</v>
+        <v>4482</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02849363895459622</v>
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1311688424593129</v>
+        <v>0.1189859921179226</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>9146</v>
+        <v>10384</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04031536719900648</v>
@@ -869,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1407139178120622</v>
+        <v>0.1597687115862464</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>43974</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>36250</v>
+        <v>36090</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>49407</v>
+        <v>49862</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7732732218436014</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6374493861646953</v>
+        <v>0.634640588564188</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8688165183482327</v>
+        <v>0.8768186981655552</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>65</v>
@@ -982,19 +982,19 @@
         <v>66093</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>56866</v>
+        <v>57779</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>73314</v>
+        <v>73451</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7541213165997763</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6488413411164841</v>
+        <v>0.6592562367127613</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8365034904664858</v>
+        <v>0.838068157155093</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>105</v>
@@ -1003,19 +1003,19 @@
         <v>110067</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>100097</v>
+        <v>100550</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>118747</v>
+        <v>119594</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7616578893022202</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6926634785450814</v>
+        <v>0.6957989502954909</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8217245166048727</v>
+        <v>0.8275816906735045</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>12893</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7460</v>
+        <v>7005</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>20617</v>
+        <v>20777</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2267267781563986</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1311834816517672</v>
+        <v>0.1231813018344448</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3625506138353047</v>
+        <v>0.3653594114358121</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>22</v>
@@ -1053,19 +1053,19 @@
         <v>21550</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>14329</v>
+        <v>14192</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>30777</v>
+        <v>29864</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2458786834002237</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.163496509533514</v>
+        <v>0.1619318428449069</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3511586588835159</v>
+        <v>0.3407437632872387</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>34</v>
@@ -1074,19 +1074,19 @@
         <v>34443</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>25763</v>
+        <v>24916</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>44413</v>
+        <v>43960</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2383421106977797</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1782754833951274</v>
+        <v>0.1724183093264956</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3073365214549186</v>
+        <v>0.3042010497045092</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>46017</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>39288</v>
+        <v>39845</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>48797</v>
+        <v>48841</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9245722566195926</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7893788102975982</v>
+        <v>0.8005625366249866</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9804356473120308</v>
+        <v>0.9813065785466547</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>47</v>
@@ -1199,7 +1199,7 @@
         <v>49284</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>44635</v>
+        <v>44962</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>51217</v>
@@ -1208,10 +1208,10 @@
         <v>0.9622530883194901</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8714808964605061</v>
+        <v>0.8778646153307064</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9999989086665514</v>
+        <v>0.9999989006876648</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>90</v>
@@ -1220,19 +1220,19 @@
         <v>95302</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>88532</v>
+        <v>87076</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>99093</v>
+        <v>99039</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9436824533828414</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8766510810656492</v>
+        <v>0.8622358754856034</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9812275293984377</v>
+        <v>0.9806951415182542</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>3754</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>974</v>
+        <v>930</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>10483</v>
+        <v>9926</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.07542774338040732</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0195643526879691</v>
+        <v>0.01869342145334534</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2106211897024019</v>
+        <v>0.1994374633750143</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>3</v>
@@ -1273,16 +1273,16 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>6582</v>
+        <v>6255</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03774691168050992</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>1.091333448631866e-06</v>
+        <v>1.099312335226675e-06</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1285191035394939</v>
+        <v>0.1221353846692916</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>6</v>
@@ -1291,19 +1291,19 @@
         <v>5687</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1896</v>
+        <v>1950</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>12457</v>
+        <v>13913</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.05631754661715862</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01877247060156231</v>
+        <v>0.01930485848174579</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1233489189343508</v>
+        <v>0.1377641245143966</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>46413</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>41420</v>
+        <v>40910</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>49275</v>
+        <v>49288</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.907895805784827</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8102277080556473</v>
+        <v>0.8002358069686915</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9638669289377073</v>
+        <v>0.9641258786558559</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>73</v>
@@ -1416,7 +1416,7 @@
         <v>69895</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>65268</v>
+        <v>65260</v>
       </c>
       <c r="M13" s="5" t="n">
         <v>71758</v>
@@ -1425,7 +1425,7 @@
         <v>0.9740333281157105</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.9095569147272764</v>
+        <v>0.9094494444760033</v>
       </c>
       <c r="P13" s="6" t="n">
         <v>1</v>
@@ -1437,19 +1437,19 @@
         <v>116307</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>109969</v>
+        <v>110652</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>120057</v>
+        <v>120078</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.9465180133118684</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.8949347606371231</v>
+        <v>0.9004929775616906</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9770354722192324</v>
+        <v>0.9772067963378789</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>4709</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1847</v>
+        <v>1834</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>9702</v>
+        <v>10212</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.09210419421517299</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03613307106229265</v>
+        <v>0.0358741213441442</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1897722919443504</v>
+        <v>0.1997641930313085</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2</v>
@@ -1490,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>6490</v>
+        <v>6498</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02596667188428948</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.09044308527272372</v>
+        <v>0.09055055552399692</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>7</v>
@@ -1508,19 +1508,19 @@
         <v>6572</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2822</v>
+        <v>2801</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>12910</v>
+        <v>12227</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.05348198668813166</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02296452778076773</v>
+        <v>0.02279320366212112</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1050652393628771</v>
+        <v>0.09950702243830936</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>16908</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>11334</v>
+        <v>11791</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>20022</v>
+        <v>20075</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7838387899044861</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5254382097658511</v>
+        <v>0.5466340377340451</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9281745858697804</v>
+        <v>0.9306521883481443</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>17</v>
@@ -1633,19 +1633,19 @@
         <v>17855</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>12498</v>
+        <v>12580</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>21128</v>
+        <v>21218</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7452765101354966</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5216491057365633</v>
+        <v>0.5250778918481593</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8818872876653046</v>
+        <v>0.8856282348444255</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>35</v>
@@ -1654,19 +1654,19 @@
         <v>34764</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>27477</v>
+        <v>27851</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>39724</v>
+        <v>39645</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7635470232802256</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6034974985139763</v>
+        <v>0.6117175794884391</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.872506494709585</v>
+        <v>0.8707632728822917</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>4663</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1549</v>
+        <v>1496</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>10237</v>
+        <v>9780</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.216161210095514</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0718254141302196</v>
+        <v>0.06934781165185579</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4745617902341488</v>
+        <v>0.4533659622659551</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>6</v>
@@ -1704,19 +1704,19 @@
         <v>6103</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2830</v>
+        <v>2740</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>11460</v>
+        <v>11378</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2547234898645035</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1181127123346954</v>
+        <v>0.1143717651555747</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4783508942634367</v>
+        <v>0.474922108151841</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>10</v>
@@ -1725,19 +1725,19 @@
         <v>10765</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5805</v>
+        <v>5884</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>18052</v>
+        <v>17678</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2364529767197744</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.127493505290415</v>
+        <v>0.1292367271177083</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3965025014860237</v>
+        <v>0.3882824205115609</v>
       </c>
     </row>
     <row r="18">
@@ -1829,7 +1829,7 @@
         <v>41305</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>37998</v>
+        <v>37072</v>
       </c>
       <c r="F19" s="5" t="n">
         <v>42356</v>
@@ -1838,7 +1838,7 @@
         <v>0.9751980508427336</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.8971211356412133</v>
+        <v>0.875239015397789</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>1</v>
@@ -1850,7 +1850,7 @@
         <v>64226</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>60147</v>
+        <v>59120</v>
       </c>
       <c r="M19" s="5" t="n">
         <v>65243</v>
@@ -1859,7 +1859,7 @@
         <v>0.9844171894293658</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.9218939017418666</v>
+        <v>0.9061451464029445</v>
       </c>
       <c r="P19" s="6" t="n">
         <v>1</v>
@@ -1871,7 +1871,7 @@
         <v>105533</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>100376</v>
+        <v>100322</v>
       </c>
       <c r="T19" s="5" t="n">
         <v>107600</v>
@@ -1880,7 +1880,7 @@
         <v>0.9807881049809004</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.9328638304399927</v>
+        <v>0.9323614376355776</v>
       </c>
       <c r="W19" s="6" t="n">
         <v>1</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>4358</v>
+        <v>5284</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02480194915726639</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1028788643587868</v>
+        <v>0.1247609846022109</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -1924,7 +1924,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>5096</v>
+        <v>6123</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01558281057063415</v>
@@ -1933,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.07810609825813356</v>
+        <v>0.09385485359705338</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>2</v>
@@ -1945,7 +1945,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>7224</v>
+        <v>7278</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0192118950190996</v>
@@ -1954,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.06713616956000702</v>
+        <v>0.06763856236442248</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>71338</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>64259</v>
+        <v>64569</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>75561</v>
+        <v>76142</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8928759278656516</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8042705380069634</v>
+        <v>0.808146922662446</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9457258026207015</v>
+        <v>0.9530078695039559</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>108</v>
@@ -2067,19 +2067,19 @@
         <v>112142</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>103710</v>
+        <v>103274</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>118108</v>
+        <v>118157</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8907050202677119</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8237387973996599</v>
+        <v>0.8202696378081593</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9380986318783493</v>
+        <v>0.9384858926302736</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>177</v>
@@ -2088,19 +2088,19 @@
         <v>183480</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>172712</v>
+        <v>173702</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>191374</v>
+        <v>191382</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8915478244697468</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8392270965131827</v>
+        <v>0.8440369768945893</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9299069674140407</v>
+        <v>0.9299476106554169</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>8559</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4336</v>
+        <v>3755</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>15638</v>
+        <v>15328</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1071240721343484</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.05427419737929845</v>
+        <v>0.04699213049604405</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1957294619930363</v>
+        <v>0.1918530773375539</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>14</v>
@@ -2138,19 +2138,19 @@
         <v>13760</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>7794</v>
+        <v>7745</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>22192</v>
+        <v>22628</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.109294979732288</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.06190136812165078</v>
+        <v>0.06151410736972645</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1762612026003401</v>
+        <v>0.1797303621918412</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>23</v>
@@ -2159,19 +2159,19 @@
         <v>22319</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>14425</v>
+        <v>14417</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>33087</v>
+        <v>32097</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1084521755302532</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.07009303258595925</v>
+        <v>0.07005238934458313</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1607729034868172</v>
+        <v>0.1559630231054105</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>47762</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>41299</v>
+        <v>41664</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>52701</v>
+        <v>52464</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.8430256017125435</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.728950613860594</v>
+        <v>0.7353916286269634</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.9301895025050585</v>
+        <v>0.9260098125938336</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>74</v>
@@ -2284,19 +2284,19 @@
         <v>78311</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>69368</v>
+        <v>69173</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>86081</v>
+        <v>85384</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.8063683312792495</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.7142761107895181</v>
+        <v>0.7122679462074879</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.8863746306332212</v>
+        <v>0.8791940269383219</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>122</v>
@@ -2305,19 +2305,19 @@
         <v>126073</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>115723</v>
+        <v>115130</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>134801</v>
+        <v>134231</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.8198743507523581</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.7525698829329988</v>
+        <v>0.7487104256094557</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.8766353519942824</v>
+        <v>0.8729293777480588</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>8894</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3955</v>
+        <v>4192</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>15357</v>
+        <v>14992</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1569743982874565</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.06981049749494159</v>
+        <v>0.07399018740616643</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.271049386139406</v>
+        <v>0.2646083713730367</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>18</v>
@@ -2355,19 +2355,19 @@
         <v>18805</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>11035</v>
+        <v>11732</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>27748</v>
+        <v>27943</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1936316687207506</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1136253693667783</v>
+        <v>0.1208059730616781</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2857238892104817</v>
+        <v>0.2877320537925122</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>27</v>
@@ -2376,19 +2376,19 @@
         <v>27698</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>18970</v>
+        <v>19540</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>38048</v>
+        <v>38641</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1801256492476418</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1233646480057173</v>
+        <v>0.1270706222519411</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2474301170670013</v>
+        <v>0.2512895743905442</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>339501</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>324715</v>
+        <v>324957</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>351175</v>
+        <v>350941</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.8805179401995737</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.8421682343662917</v>
+        <v>0.8427960207553877</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.9107955171546089</v>
+        <v>0.910187998699395</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>477</v>
@@ -2501,19 +2501,19 @@
         <v>494398</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>477931</v>
+        <v>478829</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>508194</v>
+        <v>507889</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.8820631750228606</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.8526832268463296</v>
+        <v>0.8542854186138042</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.9066758689427471</v>
+        <v>0.9061326820267992</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>811</v>
@@ -2522,19 +2522,19 @@
         <v>833899</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>812817</v>
+        <v>810953</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>852861</v>
+        <v>852394</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.8814334167996908</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.8591493176540953</v>
+        <v>0.8571794680427558</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.901475350011596</v>
+        <v>0.9009820523525092</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>46069</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>34395</v>
+        <v>34629</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>60855</v>
+        <v>60613</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1194820598004262</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.08920448284539102</v>
+        <v>0.08981200130060493</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1578317656337083</v>
+        <v>0.1572039792446123</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>67</v>
@@ -2572,19 +2572,19 @@
         <v>66104</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>52308</v>
+        <v>52613</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>82571</v>
+        <v>81673</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1179368249771394</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.09332413105725289</v>
+        <v>0.09386731797320079</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1473167731536707</v>
+        <v>0.1457145813861958</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>111</v>
@@ -2593,19 +2593,19 @@
         <v>112173</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>93211</v>
+        <v>93678</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>133255</v>
+        <v>135119</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1185665832003092</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.09852464998840399</v>
+        <v>0.09901794764749074</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1408506823459046</v>
+        <v>0.1428205319572441</v>
       </c>
     </row>
     <row r="30">
@@ -2941,7 +2941,7 @@
         <v>46577</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>40975</v>
+        <v>41604</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>48643</v>
@@ -2950,7 +2950,7 @@
         <v>0.9575371821626643</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8423594842756201</v>
+        <v>0.8552873847959984</v>
       </c>
       <c r="I4" s="6" t="n">
         <v>1</v>
@@ -2962,19 +2962,19 @@
         <v>66110</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>60876</v>
+        <v>60795</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>68358</v>
+        <v>68356</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9525167466844402</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8771025858013509</v>
+        <v>0.8759380839006063</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.984896936796462</v>
+        <v>0.9848760592340158</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>104</v>
@@ -2983,19 +2983,19 @@
         <v>112688</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>106308</v>
+        <v>106450</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>116016</v>
+        <v>116031</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9545854472849651</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.900538328448243</v>
+        <v>0.9017468683594781</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9827752378396694</v>
+        <v>0.9829027088641504</v>
       </c>
     </row>
     <row r="5">
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7668</v>
+        <v>7039</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04246281783733571</v>
@@ -3024,7 +3024,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1576405157243825</v>
+        <v>0.1447126152040036</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -3033,19 +3033,19 @@
         <v>3296</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8530</v>
+        <v>8611</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04748325331555984</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0151030632035381</v>
+        <v>0.01512394076598428</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1228974141986493</v>
+        <v>0.1240619160993959</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>5</v>
@@ -3054,19 +3054,19 @@
         <v>5361</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2033</v>
+        <v>2018</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>11741</v>
+        <v>11599</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04541455271503493</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01722476216033072</v>
+        <v>0.01709729113584963</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.09946167155175716</v>
+        <v>0.09825313164052174</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>58502</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>49661</v>
+        <v>50814</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>64815</v>
+        <v>65197</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7806437957124548</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6626625340519532</v>
+        <v>0.6780535139060192</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8648849924333147</v>
+        <v>0.8699779887981686</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>84</v>
@@ -3179,19 +3179,19 @@
         <v>89892</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>79532</v>
+        <v>78405</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>98015</v>
+        <v>97413</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7965025291738763</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7047029317646721</v>
+        <v>0.6947150801920551</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8684728128304519</v>
+        <v>0.8631391098346536</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>140</v>
@@ -3200,19 +3200,19 @@
         <v>148395</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>133904</v>
+        <v>135919</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>158175</v>
+        <v>160224</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7901741686172314</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7130160032119678</v>
+        <v>0.7237442428278864</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8422544135417676</v>
+        <v>0.8531634300171129</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>16439</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>10126</v>
+        <v>9744</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>25280</v>
+        <v>24127</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2193562042875452</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1351150075666857</v>
+        <v>0.1300220112018316</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3373374659480468</v>
+        <v>0.321946486093981</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>21</v>
@@ -3250,19 +3250,19 @@
         <v>22967</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>14844</v>
+        <v>15446</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>33327</v>
+        <v>34454</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2034974708261237</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1315271871695481</v>
+        <v>0.1368608901653464</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2952970682353277</v>
+        <v>0.305284919807945</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>36</v>
@@ -3271,19 +3271,19 @@
         <v>39405</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>29625</v>
+        <v>27576</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>53896</v>
+        <v>51881</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2098258313827685</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1577455864582326</v>
+        <v>0.1468365699828877</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2869839967880322</v>
+        <v>0.2762557571721137</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>38995</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>32978</v>
+        <v>32729</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>43196</v>
+        <v>43086</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8293821080233855</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7014132967605649</v>
+        <v>0.6961109051982999</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9187301138435422</v>
+        <v>0.9164003268233497</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>55</v>
@@ -3396,19 +3396,19 @@
         <v>59420</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>54276</v>
+        <v>54809</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>61452</v>
+        <v>62412</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9520669515474666</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8696325338756016</v>
+        <v>0.8781751258723186</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9846144457946981</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>93</v>
@@ -3417,19 +3417,19 @@
         <v>98415</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>90791</v>
+        <v>91065</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>103469</v>
+        <v>103519</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8993543348121664</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8296817204852742</v>
+        <v>0.83218128331911</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9455390035472897</v>
+        <v>0.9459969216083818</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>8022</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3821</v>
+        <v>3931</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>14039</v>
+        <v>14288</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1706178919766145</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.08126988615645789</v>
+        <v>0.08359967317665032</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2985867032394365</v>
+        <v>0.3038890948017003</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>3</v>
@@ -3467,19 +3467,19 @@
         <v>2992</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>960</v>
+        <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>8136</v>
+        <v>7603</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.04793304845253341</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01538555420530183</v>
+        <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1303674661243987</v>
+        <v>0.1218248741276823</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>11</v>
@@ -3488,19 +3488,19 @@
         <v>11014</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>5960</v>
+        <v>5910</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>18638</v>
+        <v>18364</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1006456651878336</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.05446099645271028</v>
+        <v>0.05400307839161828</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.170318279514726</v>
+        <v>0.1678187166808902</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>45383</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>39306</v>
+        <v>39425</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>49486</v>
+        <v>49484</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8795984039813249</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7618257330130745</v>
+        <v>0.7641170774544521</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9591215911232858</v>
+        <v>0.9590862596993885</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>63</v>
@@ -3613,19 +3613,19 @@
         <v>64098</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>56033</v>
+        <v>57396</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>69577</v>
+        <v>69855</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.8437727149032134</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7376091176729417</v>
+        <v>0.7555527958437447</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9158987109235638</v>
+        <v>0.9195543046925211</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>105</v>
@@ -3634,19 +3634,19 @@
         <v>109481</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>100846</v>
+        <v>100518</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>116739</v>
+        <v>115788</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.8582632613413756</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7905677145552596</v>
+        <v>0.7880010117188935</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.915164017415742</v>
+        <v>0.9077107470181546</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>6212</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2109</v>
+        <v>2111</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>12289</v>
+        <v>12170</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1204015960186751</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.04087840887671421</v>
+        <v>0.04091374030061141</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2381742669869254</v>
+        <v>0.2358829225455479</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>11</v>
@@ -3684,19 +3684,19 @@
         <v>11868</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>6389</v>
+        <v>6111</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>19933</v>
+        <v>18570</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1562272850967867</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.08410128907643634</v>
+        <v>0.08044569530747887</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2623908823270583</v>
+        <v>0.2444472041562551</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>17</v>
@@ -3705,19 +3705,19 @@
         <v>18080</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>10822</v>
+        <v>11773</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>26715</v>
+        <v>27043</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1417367386586244</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.08483598258425785</v>
+        <v>0.09228925298184548</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.20943228544474</v>
+        <v>0.2119989882811066</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>13410</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8646</v>
+        <v>9151</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>16705</v>
+        <v>16678</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7510319149135454</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.484254455178359</v>
+        <v>0.51252569050047</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9355925173879939</v>
+        <v>0.9340560510785405</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>30</v>
@@ -3830,19 +3830,19 @@
         <v>31530</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>25267</v>
+        <v>25384</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>35991</v>
+        <v>36384</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7744354187608763</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6206036833275282</v>
+        <v>0.6234756151684038</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8839897698146575</v>
+        <v>0.893648373517007</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>44</v>
@@ -3851,19 +3851,19 @@
         <v>44940</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>37620</v>
+        <v>37654</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>51068</v>
+        <v>51199</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7673007162884156</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6423237470788208</v>
+        <v>0.6428978987834157</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8719280787640639</v>
+        <v>0.8741642240167411</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>4445</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1150</v>
+        <v>1177</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9209</v>
+        <v>8704</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2489680850864546</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06440748261200611</v>
+        <v>0.06594394892145959</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5157455448216431</v>
+        <v>0.4874743094995295</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>9</v>
@@ -3901,19 +3901,19 @@
         <v>9184</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>4723</v>
+        <v>4330</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>15447</v>
+        <v>15330</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2255645812391238</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1160102301853428</v>
+        <v>0.1063516264829929</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3793963166724718</v>
+        <v>0.3765243848315953</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>13</v>
@@ -3922,19 +3922,19 @@
         <v>13629</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>7501</v>
+        <v>7370</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>20949</v>
+        <v>20915</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2326992837115844</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1280719212359355</v>
+        <v>0.1258357759832595</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3576762529211792</v>
+        <v>0.357102101216585</v>
       </c>
     </row>
     <row r="18">
@@ -4026,19 +4026,19 @@
         <v>31872</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>25511</v>
+        <v>25255</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>37108</v>
+        <v>36937</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.7544480304182219</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.6038622449807639</v>
+        <v>0.5977963929709407</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.8783906569584032</v>
+        <v>0.8743400618544971</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>50</v>
@@ -4047,19 +4047,19 @@
         <v>52974</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>45588</v>
+        <v>45875</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>58083</v>
+        <v>58670</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.8302147966144252</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.7144643075404948</v>
+        <v>0.7189687011916188</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.9102934681370694</v>
+        <v>0.9194927690721668</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>81</v>
@@ -4068,19 +4068,19 @@
         <v>84845</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>75749</v>
+        <v>74310</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>92478</v>
+        <v>92273</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.8000332808966623</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.7142585120416535</v>
+        <v>0.7006906184961268</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.8720024586168987</v>
+        <v>0.8700702113021442</v>
       </c>
     </row>
     <row r="20">
@@ -4097,19 +4097,19 @@
         <v>10374</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>5138</v>
+        <v>5309</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>16735</v>
+        <v>16991</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2455519695817781</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1216093430415967</v>
+        <v>0.1256599381455029</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3961377550192361</v>
+        <v>0.4022036070290593</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>10</v>
@@ -4118,19 +4118,19 @@
         <v>10833</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>5724</v>
+        <v>5137</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>18219</v>
+        <v>17932</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1697852033855748</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.08970653186293065</v>
+        <v>0.08050723092783316</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2855356924595047</v>
+        <v>0.281031298808381</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>19</v>
@@ -4139,19 +4139,19 @@
         <v>21207</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>13574</v>
+        <v>13779</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>30303</v>
+        <v>31742</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1999667191033377</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1279975413831013</v>
+        <v>0.1299297886978556</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2857414879583465</v>
+        <v>0.299309381503873</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>84028</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>78508</v>
+        <v>77793</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>87270</v>
+        <v>86984</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9519855809489239</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8894467145690107</v>
+        <v>0.881352631613048</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9887176020319848</v>
+        <v>0.9854707238072906</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>91</v>
@@ -4264,19 +4264,19 @@
         <v>98781</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>91536</v>
+        <v>91059</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>103754</v>
+        <v>103736</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9063147954846523</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8398452091843799</v>
+        <v>0.8354644449332259</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9519427708616519</v>
+        <v>0.9517753436665893</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>169</v>
@@ -4285,19 +4285,19 @@
         <v>182809</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>174016</v>
+        <v>173170</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>188566</v>
+        <v>188712</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9267507941329417</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8821741319534404</v>
+        <v>0.8778854674461912</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9559336109328788</v>
+        <v>0.9566762928093696</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>4238</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>996</v>
+        <v>1282</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>9758</v>
+        <v>10473</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.04801441905107603</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01128239796801523</v>
+        <v>0.01452927619270931</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1105532854309891</v>
+        <v>0.118647368386952</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>10</v>
@@ -4335,19 +4335,19 @@
         <v>10211</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>5238</v>
+        <v>5256</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>17456</v>
+        <v>17933</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.09368520451534773</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.04805722913834804</v>
+        <v>0.0482246563334111</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1601547908156204</v>
+        <v>0.1645355550667741</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>14</v>
@@ -4356,19 +4356,19 @@
         <v>14449</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>8692</v>
+        <v>8546</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>23242</v>
+        <v>24088</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.07324920586705834</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.04406638906712283</v>
+        <v>0.0433237071906309</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1178258680465607</v>
+        <v>0.1221145325538094</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>28667</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>21225</v>
+        <v>22087</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>34331</v>
+        <v>35007</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.6867580228893424</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.5084804001942076</v>
+        <v>0.5291197489248366</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.8224260442989531</v>
+        <v>0.8386339681882261</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>51</v>
@@ -4481,19 +4481,19 @@
         <v>58852</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>51087</v>
+        <v>51112</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>65576</v>
+        <v>64833</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.7932889894439501</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.6886300799112228</v>
+        <v>0.6889592880074841</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.8839252376046373</v>
+        <v>0.8739076378363559</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>77</v>
@@ -4502,19 +4502,19 @@
         <v>87520</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>77270</v>
+        <v>76055</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>96468</v>
+        <v>97171</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.7549301632303822</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.6665204182690535</v>
+        <v>0.6560348480158389</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.8321137857322353</v>
+        <v>0.8381834006826366</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>13076</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>7412</v>
+        <v>6736</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>20518</v>
+        <v>19656</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3132419771106575</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.177573955701047</v>
+        <v>0.1613660318117737</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4915195998057923</v>
+        <v>0.4708802510751627</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>14</v>
@@ -4552,19 +4552,19 @@
         <v>15335</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>8611</v>
+        <v>9354</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>23100</v>
+        <v>23075</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2067110105560499</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1160747623953627</v>
+        <v>0.1260923621636436</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3113699200887772</v>
+        <v>0.3110407119925159</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>25</v>
@@ -4573,19 +4573,19 @@
         <v>28411</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>19463</v>
+        <v>18760</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>38661</v>
+        <v>39876</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2450698367696178</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1678862142677651</v>
+        <v>0.161816599317363</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3334795817309467</v>
+        <v>0.3439651519841611</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>347435</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>331929</v>
+        <v>330158</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>363243</v>
+        <v>361789</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.842662811213445</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.805054918555001</v>
+        <v>0.800759441564043</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8810042078351663</v>
+        <v>0.8774763211208795</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>482</v>
@@ -4698,19 +4698,19 @@
         <v>521658</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>504036</v>
+        <v>502827</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>539083</v>
+        <v>538496</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.8575063404902218</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.8285388408950377</v>
+        <v>0.8265522683016795</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.8861498667080128</v>
+        <v>0.8851851925228479</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>813</v>
@@ -4719,19 +4719,19 @@
         <v>869093</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>842963</v>
+        <v>843670</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>890697</v>
+        <v>891325</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.851510084937562</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.8259092905314952</v>
+        <v>0.8266012417564186</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.8726772168823325</v>
+        <v>0.8732927599789294</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>64871</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>49063</v>
+        <v>50517</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>80377</v>
+        <v>82148</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.157337188786555</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1189957921648335</v>
+        <v>0.1225236788791205</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.194945081444999</v>
+        <v>0.1992405584359569</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>81</v>
@@ -4769,19 +4769,19 @@
         <v>86685</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>69260</v>
+        <v>69847</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>104307</v>
+        <v>105516</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1424936595097782</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.113850133291987</v>
+        <v>0.1148148074771518</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1714611591049622</v>
+        <v>0.1734477316983199</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>140</v>
@@ -4790,19 +4790,19 @@
         <v>151556</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>129952</v>
+        <v>129324</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>177686</v>
+        <v>176979</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.148489915062438</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1273227831176676</v>
+        <v>0.1267072400210706</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1740907094685048</v>
+        <v>0.1733987582435813</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>50424</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45207</v>
+        <v>45641</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>52467</v>
+        <v>52480</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9468868633844708</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8489209854502369</v>
+        <v>0.8570810000378046</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9852519654571796</v>
+        <v>0.9855034184332294</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>56</v>
@@ -5159,19 +5159,19 @@
         <v>57996</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>51074</v>
+        <v>50447</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>62481</v>
+        <v>62380</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8646793945695127</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7614763975806853</v>
+        <v>0.7521367642140587</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9315559115186509</v>
+        <v>0.9300516348549827</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>102</v>
@@ -5180,19 +5180,19 @@
         <v>108419</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>100447</v>
+        <v>101397</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>113806</v>
+        <v>114222</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9010621560418636</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.834808160335488</v>
+        <v>0.842699857760757</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9458283664770156</v>
+        <v>0.9492868664448804</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>2828</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>785</v>
+        <v>772</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8045</v>
+        <v>7611</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05311313661552921</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01474803454282043</v>
+        <v>0.01449658156677054</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1510790145497631</v>
+        <v>0.1429189999621951</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>9</v>
@@ -5230,19 +5230,19 @@
         <v>9076</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4591</v>
+        <v>4692</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>15998</v>
+        <v>16625</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1353206054304873</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06844408848134864</v>
+        <v>0.06994836514501719</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2385236024193146</v>
+        <v>0.2478632357859413</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>12</v>
@@ -5251,19 +5251,19 @@
         <v>11905</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>6518</v>
+        <v>6102</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>19877</v>
+        <v>18927</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.09893784395813647</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05417163352298474</v>
+        <v>0.05071313355511967</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.165191839664512</v>
+        <v>0.1573001422392431</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>42373</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>36908</v>
+        <v>36053</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>46167</v>
+        <v>45749</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8775123423021488</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7643301184180797</v>
+        <v>0.7466292727340601</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9560789162472478</v>
+        <v>0.9474128382339015</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>45</v>
@@ -5376,19 +5376,19 @@
         <v>48071</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>40480</v>
+        <v>39939</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>53690</v>
+        <v>53324</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8072408913792087</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6797694460524892</v>
+        <v>0.6706795482594498</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9015903616485487</v>
+        <v>0.8954532344569136</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>84</v>
@@ -5397,19 +5397,19 @@
         <v>90445</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>81506</v>
+        <v>82340</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>96532</v>
+        <v>97756</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.8387072695482745</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7558116283611614</v>
+        <v>0.7635480478710087</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8951481113606686</v>
+        <v>0.9064971379326099</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>5915</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2121</v>
+        <v>2539</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>11380</v>
+        <v>12235</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1224876576978512</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.04392108375275214</v>
+        <v>0.05258716176609814</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2356698815819198</v>
+        <v>0.2533707272659398</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>10</v>
@@ -5447,19 +5447,19 @@
         <v>11479</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>5860</v>
+        <v>6226</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>19070</v>
+        <v>19611</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1927591086207912</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.09840963835145142</v>
+        <v>0.104546765543086</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3202305539475109</v>
+        <v>0.32932045174055</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>16</v>
@@ -5468,19 +5468,19 @@
         <v>17394</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>11307</v>
+        <v>10083</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>26333</v>
+        <v>25499</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1612927304517255</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1048518886393314</v>
+        <v>0.0935028620673905</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2441883716388387</v>
+        <v>0.2364519521289916</v>
       </c>
     </row>
     <row r="9">
@@ -5572,19 +5572,19 @@
         <v>13026</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9271</v>
+        <v>8368</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>16708</v>
+        <v>15880</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7009351872706522</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4988839745777333</v>
+        <v>0.450282128279902</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8990476815645571</v>
+        <v>0.854501852148401</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>22</v>
@@ -5593,19 +5593,19 @@
         <v>23579</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>19201</v>
+        <v>18514</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>26458</v>
+        <v>26364</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8382530427167517</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6826095126577851</v>
+        <v>0.6581807034921991</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9405788451589292</v>
+        <v>0.9372480516760664</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>36</v>
@@ -5614,19 +5614,19 @@
         <v>36605</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>30606</v>
+        <v>30884</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>41047</v>
+        <v>41370</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7836229079683497</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6551916432866134</v>
+        <v>0.6611340299511771</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8787056667316191</v>
+        <v>0.8856233491886499</v>
       </c>
     </row>
     <row r="11">
@@ -5643,19 +5643,19 @@
         <v>5558</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1876</v>
+        <v>2704</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>9313</v>
+        <v>10216</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2990648127293479</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1009523184354429</v>
+        <v>0.145498147851599</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5011160254222666</v>
+        <v>0.549717871720098</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>5</v>
@@ -5664,19 +5664,19 @@
         <v>4550</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1671</v>
+        <v>1765</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>8928</v>
+        <v>9615</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1617469572832483</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05942115484107075</v>
+        <v>0.06275194832393373</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3173904873422146</v>
+        <v>0.3418192965078037</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>11</v>
@@ -5685,19 +5685,19 @@
         <v>10108</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>5666</v>
+        <v>5343</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>16107</v>
+        <v>15829</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2163770920316503</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1212943332683809</v>
+        <v>0.11437665081135</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3448083567133866</v>
+        <v>0.3388659700488234</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>44880</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>38255</v>
+        <v>38305</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>49937</v>
+        <v>49851</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8103562670587627</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6907441665740638</v>
+        <v>0.6916336574513093</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9016753561874963</v>
+        <v>0.9001154549137497</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>35</v>
@@ -5810,19 +5810,19 @@
         <v>39311</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>30154</v>
+        <v>30048</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>47368</v>
+        <v>46690</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6307186430139182</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4838033893149697</v>
+        <v>0.482101230605226</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7599978249341168</v>
+        <v>0.7491100999778952</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>75</v>
@@ -5831,19 +5831,19 @@
         <v>84191</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>72504</v>
+        <v>73445</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>93684</v>
+        <v>93420</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7152386679316527</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6159585742121396</v>
+        <v>0.6239471663695675</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7958868048729244</v>
+        <v>0.7936451439202231</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>10503</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5446</v>
+        <v>5532</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>17128</v>
+        <v>17078</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1896437329412372</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.09832464381250371</v>
+        <v>0.0998845450862503</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3092558334259362</v>
+        <v>0.3083663425486906</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>20</v>
@@ -5881,19 +5881,19 @@
         <v>23016</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>14959</v>
+        <v>15637</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>32173</v>
+        <v>32279</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3692813569860818</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2400021750658832</v>
+        <v>0.2508899000221054</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5161966106850304</v>
+        <v>0.5178987693947749</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>30</v>
@@ -5902,19 +5902,19 @@
         <v>33519</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>24026</v>
+        <v>24290</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>45206</v>
+        <v>44265</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2847613320683474</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2041131951270756</v>
+        <v>0.2063548560797771</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3840414257878605</v>
+        <v>0.3760528336304325</v>
       </c>
     </row>
     <row r="15">
@@ -6006,19 +6006,19 @@
         <v>6163</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2591</v>
+        <v>2588</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9123</v>
+        <v>9120</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5112713298003526</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2149366626236915</v>
+        <v>0.2146627267076968</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7568363597205426</v>
+        <v>0.7565568322576077</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -6027,19 +6027,19 @@
         <v>4654</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1187</v>
+        <v>1171</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7878</v>
+        <v>8006</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4457236137717413</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1136844708703309</v>
+        <v>0.1121133845603621</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7545253834376402</v>
+        <v>0.7667632015617867</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>11</v>
@@ -6048,19 +6048,19 @@
         <v>10817</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6061</v>
+        <v>6194</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>15555</v>
+        <v>15422</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4808483785512919</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2694179629814219</v>
+        <v>0.2753583689532911</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6914831929933479</v>
+        <v>0.68558633000673</v>
       </c>
     </row>
     <row r="17">
@@ -6077,19 +6077,19 @@
         <v>5891</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2931</v>
+        <v>2934</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9463</v>
+        <v>9466</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4887286701996473</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2431636402794574</v>
+        <v>0.2434431677423923</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7850633373763085</v>
+        <v>0.7853372732923032</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>6</v>
@@ -6098,19 +6098,19 @@
         <v>5787</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2563</v>
+        <v>2435</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>9254</v>
+        <v>9270</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5542763862282587</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2454746165623597</v>
+        <v>0.2332367984382132</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8863155291296687</v>
+        <v>0.8878866154396379</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>12</v>
@@ -6119,19 +6119,19 @@
         <v>11678</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6940</v>
+        <v>7073</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>16434</v>
+        <v>16301</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5191516214487082</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3085168070066518</v>
+        <v>0.3144136699932698</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.730582037018578</v>
+        <v>0.7246416310467089</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>28762</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>22676</v>
+        <v>22783</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>32378</v>
+        <v>32289</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.8376983729477636</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.6604639174846616</v>
+        <v>0.663560551126517</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.9430351823512148</v>
+        <v>0.9404463710344794</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>31</v>
@@ -6244,19 +6244,19 @@
         <v>35655</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>29968</v>
+        <v>30075</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>38742</v>
+        <v>38803</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.8980615406888136</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.754817008562024</v>
+        <v>0.7575137765842034</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.9758244135423024</v>
+        <v>0.9773532087498457</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>60</v>
@@ -6265,19 +6265,19 @@
         <v>64417</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>57348</v>
+        <v>57173</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>69170</v>
+        <v>69067</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.8700681916809809</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.7745809197827838</v>
+        <v>0.7722273279965282</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.9342568074449022</v>
+        <v>0.9328753298206511</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>5572</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1956</v>
+        <v>2045</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>11658</v>
+        <v>11551</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1623016270522364</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.05696481764878514</v>
+        <v>0.05955362896552055</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3395360825153373</v>
+        <v>0.3364394488734832</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>4</v>
@@ -6315,19 +6315,19 @@
         <v>4047</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>960</v>
+        <v>899</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>9734</v>
+        <v>9627</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1019384593111864</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02417558645769762</v>
+        <v>0.02264679125015438</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2451829914379763</v>
+        <v>0.2424862234157968</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>9</v>
@@ -6336,19 +6336,19 @@
         <v>9620</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>4867</v>
+        <v>4970</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>16689</v>
+        <v>16864</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1299318083190191</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0657431925550975</v>
+        <v>0.06712467017934889</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2254190802172163</v>
+        <v>0.2277726720034715</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>52949</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>44766</v>
+        <v>45246</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>58227</v>
+        <v>58151</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.852317964612624</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7205862960992744</v>
+        <v>0.7283202067139196</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9372635347590889</v>
+        <v>0.936052193715696</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>70</v>
@@ -6461,19 +6461,19 @@
         <v>77132</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>69911</v>
+        <v>69571</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>82071</v>
+        <v>81707</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8842416638376337</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8014684578351869</v>
+        <v>0.7975693174368255</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9408649644040511</v>
+        <v>0.9366974868808342</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>116</v>
@@ -6482,19 +6482,19 @@
         <v>130081</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>119959</v>
+        <v>119493</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>138130</v>
+        <v>138169</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8709629591042674</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8031927750481801</v>
+        <v>0.8000683970382021</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9248539280189262</v>
+        <v>0.9251186472414611</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>9175</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3897</v>
+        <v>3973</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>17358</v>
+        <v>16878</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.147682035387376</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.06273646524091124</v>
+        <v>0.06394780628430434</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2794137039007257</v>
+        <v>0.2716797932860822</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>9</v>
@@ -6532,19 +6532,19 @@
         <v>10097</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>5158</v>
+        <v>5522</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>17318</v>
+        <v>17658</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1157583361623663</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.05913503559594884</v>
+        <v>0.06330251311916558</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1985315421648131</v>
+        <v>0.2024306825631726</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>16</v>
@@ -6553,19 +6553,19 @@
         <v>19272</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>11223</v>
+        <v>11184</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>29394</v>
+        <v>29860</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1290370408957326</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.07514607198107347</v>
+        <v>0.07488135275853883</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1968072249518192</v>
+        <v>0.1999316029617979</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>31561</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>23648</v>
+        <v>25126</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>37270</v>
+        <v>37246</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.6958588768647895</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.5214071709841579</v>
+        <v>0.5539780444499037</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.821739822616409</v>
+        <v>0.8212021428536251</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>51</v>
@@ -6678,19 +6678,19 @@
         <v>58056</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>52958</v>
+        <v>51850</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>61210</v>
+        <v>61171</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.9326412759601328</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.8507407400191369</v>
+        <v>0.8329499150625523</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.9833063886157666</v>
+        <v>0.9826806700066735</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>83</v>
@@ -6699,19 +6699,19 @@
         <v>89617</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>80087</v>
+        <v>81166</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>96206</v>
+        <v>96312</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.8328374648102547</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.7442737531627177</v>
+        <v>0.754304308830793</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.8940762033628441</v>
+        <v>0.8950638868952729</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>13794</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>8085</v>
+        <v>8109</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>21707</v>
+        <v>20229</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3041411231352105</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1782601773835911</v>
+        <v>0.1787978571463748</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.478592829015842</v>
+        <v>0.4460219555500962</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4</v>
@@ -6749,19 +6749,19 @@
         <v>4193</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1039</v>
+        <v>1078</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>9291</v>
+        <v>10399</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.06735872403986719</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01669361138423339</v>
+        <v>0.01731932999332653</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1492592599808616</v>
+        <v>0.1670500849374477</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>17</v>
@@ -6770,19 +6770,19 @@
         <v>17987</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>11398</v>
+        <v>11292</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>27517</v>
+        <v>26438</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1671625351897453</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1059237966371558</v>
+        <v>0.1049361131047271</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2557262468372828</v>
+        <v>0.2456956911692072</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>270138</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>253788</v>
+        <v>254762</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>283724</v>
+        <v>282812</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.8201542109977563</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.7705127018798814</v>
+        <v>0.7734722493380783</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8614023493961506</v>
+        <v>0.8586335468770213</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>314</v>
@@ -6895,19 +6895,19 @@
         <v>344454</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>328548</v>
+        <v>327246</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>360314</v>
+        <v>360173</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.8266234637234231</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.7884532587751909</v>
+        <v>0.7853282376871331</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.8646848364101211</v>
+        <v>0.8643459662109214</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>567</v>
@@ -6916,19 +6916,19 @@
         <v>614592</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>592314</v>
+        <v>592904</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>634732</v>
+        <v>634620</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.8237674352509687</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.7939073639338307</v>
+        <v>0.7946980688072423</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.8507614250791744</v>
+        <v>0.8506118706297926</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>59237</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>45651</v>
+        <v>46563</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>75587</v>
+        <v>74613</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1798457890022437</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1385976506038494</v>
+        <v>0.1413664531229788</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2294872981201187</v>
+        <v>0.2265277506619219</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>67</v>
@@ -6966,19 +6966,19 @@
         <v>72246</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>56386</v>
+        <v>56527</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>88152</v>
+        <v>89454</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1733765362765769</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1353151635898786</v>
+        <v>0.1356540337890779</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.211546741224809</v>
+        <v>0.2146717623128665</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>123</v>
@@ -6987,19 +6987,19 @@
         <v>131483</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>111343</v>
+        <v>111455</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>153761</v>
+        <v>153171</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1762325647490313</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1492385749208259</v>
+        <v>0.1493881293702074</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2060926360661695</v>
+        <v>0.2053019311927579</v>
       </c>
     </row>
     <row r="30">
@@ -7335,19 +7335,19 @@
         <v>60079</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>55616</v>
+        <v>55921</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>61850</v>
+        <v>61863</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9605183844707528</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.889159120022341</v>
+        <v>0.8940374895345555</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9888203930668243</v>
+        <v>0.9890330669360703</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>121</v>
@@ -7356,19 +7356,19 @@
         <v>69167</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>65154</v>
+        <v>65295</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>71599</v>
+        <v>71775</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.935644687320458</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8813651312286381</v>
+        <v>0.8832773762129502</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9685498708793615</v>
+        <v>0.9709257112646302</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>187</v>
@@ -7377,19 +7377,19 @@
         <v>129245</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>124257</v>
+        <v>123831</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>132521</v>
+        <v>132785</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9470449396133285</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9104930577828759</v>
+        <v>0.9073728897722987</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9710466962149121</v>
+        <v>0.972984861518809</v>
       </c>
     </row>
     <row r="5">
@@ -7406,19 +7406,19 @@
         <v>2470</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>699</v>
+        <v>686</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6933</v>
+        <v>6628</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.03948161552924729</v>
+        <v>0.0394816155292473</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01117960693317566</v>
+        <v>0.01096693306392966</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1108408799776608</v>
+        <v>0.1059625104654444</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>9</v>
@@ -7427,19 +7427,19 @@
         <v>4757</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2325</v>
+        <v>2149</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8770</v>
+        <v>8629</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.064355312679542</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03145012912063844</v>
+        <v>0.02907428873536956</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1186348687713619</v>
+        <v>0.1167226237870498</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>12</v>
@@ -7448,19 +7448,19 @@
         <v>7227</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>3951</v>
+        <v>3687</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>12215</v>
+        <v>12641</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05295506038667148</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02895330378508787</v>
+        <v>0.02701513848119105</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08950694221712449</v>
+        <v>0.09262711022770118</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>60368</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>47109</v>
+        <v>48119</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>66069</v>
+        <v>66037</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8727160203866874</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6810375857700258</v>
+        <v>0.6956490724771824</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9551480125509469</v>
+        <v>0.9546786663427704</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>98</v>
@@ -7573,19 +7573,19 @@
         <v>73734</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>67663</v>
+        <v>67572</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>78536</v>
+        <v>78205</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.8515497634544729</v>
+        <v>0.851549763454473</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7814409720446814</v>
+        <v>0.7803878089192953</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9070108279402854</v>
+        <v>0.9031863844519367</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>143</v>
@@ -7594,19 +7594,19 @@
         <v>134102</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>120027</v>
+        <v>121038</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>141651</v>
+        <v>141586</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.8609496237932703</v>
+        <v>0.8609496237932704</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7705899046311533</v>
+        <v>0.7770813447394317</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9094214508062771</v>
+        <v>0.9090033483061682</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>8804</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3103</v>
+        <v>3135</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>22063</v>
+        <v>21053</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1272839796133125</v>
+        <v>0.1272839796133124</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.04485198744905305</v>
+        <v>0.04532133365722954</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3189624142299741</v>
+        <v>0.3043509275228177</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>19</v>
@@ -7644,19 +7644,19 @@
         <v>12854</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>8052</v>
+        <v>8383</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>18925</v>
+        <v>19016</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1484502365455269</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.0929891720597142</v>
+        <v>0.09681361554806329</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2185590279553185</v>
+        <v>0.2196121910807049</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>25</v>
@@ -7665,19 +7665,19 @@
         <v>21658</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>14109</v>
+        <v>14174</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>35733</v>
+        <v>34722</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.1390503762067295</v>
+        <v>0.1390503762067296</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.09057854919372284</v>
+        <v>0.09099665169383157</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2294100953688449</v>
+        <v>0.2229186552605682</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>49455</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>44893</v>
+        <v>44204</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>51721</v>
+        <v>52041</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9282575527816898</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.842642303831222</v>
+        <v>0.8297071636346856</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9707911232715642</v>
+        <v>0.9767928445283676</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>115</v>
@@ -7790,19 +7790,19 @@
         <v>81939</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>77523</v>
+        <v>77743</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>85060</v>
+        <v>84812</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.9276205311711284</v>
+        <v>0.9276205311711286</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8776336782668747</v>
+        <v>0.880120334381874</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9629567474595107</v>
+        <v>0.9601450822563261</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>173</v>
@@ -7811,19 +7811,19 @@
         <v>131393</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>124563</v>
+        <v>125660</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>135330</v>
+        <v>135758</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.9278601942647884</v>
+        <v>0.9278601942647882</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8796236095005707</v>
+        <v>0.887375332474126</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9556584752382598</v>
+        <v>0.9586791046798601</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>3822</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1556</v>
+        <v>1236</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>8384</v>
+        <v>9073</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.07174244721831043</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02920887672843587</v>
+        <v>0.02320715547163352</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.157357696168778</v>
+        <v>0.1702928363653156</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>12</v>
@@ -7861,19 +7861,19 @@
         <v>6393</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>3272</v>
+        <v>3520</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>10809</v>
+        <v>10589</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.07237946882887152</v>
+        <v>0.07237946882887154</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0370432525404888</v>
+        <v>0.03985491774367378</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1223663217331242</v>
+        <v>0.1198796656181261</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>17</v>
@@ -7882,19 +7882,19 @@
         <v>10216</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>6279</v>
+        <v>5851</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>17046</v>
+        <v>15949</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.07213980573521177</v>
+        <v>0.07213980573521175</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.04434152476174039</v>
+        <v>0.04132089532013999</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1203763904994297</v>
+        <v>0.1126246675258741</v>
       </c>
     </row>
     <row r="12">
@@ -7986,19 +7986,19 @@
         <v>58873</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>48430</v>
+        <v>49822</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>64414</v>
+        <v>64842</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.8555707327652976</v>
+        <v>0.8555707327652978</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7038125002139873</v>
+        <v>0.7240372968118297</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9360944767049427</v>
+        <v>0.942319387916697</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>97</v>
@@ -8007,19 +8007,19 @@
         <v>69537</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>59012</v>
+        <v>59437</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>77003</v>
+        <v>77172</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.784471311121996</v>
+        <v>0.7844713111219959</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.665729805247374</v>
+        <v>0.6705275663297992</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8686917587684361</v>
+        <v>0.8706024609977748</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>141</v>
@@ -8028,19 +8028,19 @@
         <v>128409</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>114007</v>
+        <v>113873</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>139404</v>
+        <v>138804</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.8155436159290369</v>
+        <v>0.8155436159290371</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7240766076402384</v>
+        <v>0.7232222583642161</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8853744170057258</v>
+        <v>0.8815646283774726</v>
       </c>
     </row>
     <row r="14">
@@ -8057,19 +8057,19 @@
         <v>9938</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4397</v>
+        <v>3969</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>20381</v>
+        <v>18989</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1444292672347022</v>
+        <v>0.1444292672347023</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.06390552329505732</v>
+        <v>0.05768061208330309</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2961874997860128</v>
+        <v>0.2759627031881706</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>21</v>
@@ -8078,19 +8078,19 @@
         <v>19105</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>11639</v>
+        <v>11470</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>29630</v>
+        <v>29205</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.2155286888780041</v>
+        <v>0.215528688878004</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.131308241231564</v>
+        <v>0.129397539002225</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3342701947526263</v>
+        <v>0.3294724336702</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>27</v>
@@ -8099,19 +8099,19 @@
         <v>29043</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>18048</v>
+        <v>18648</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>43445</v>
+        <v>43579</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.184456384070963</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1146255829942744</v>
+        <v>0.1184353716225273</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2759233923597614</v>
+        <v>0.2767777416357833</v>
       </c>
     </row>
     <row r="15">
@@ -8216,7 +8216,7 @@
         <v>8224</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6361</v>
+        <v>6298</v>
       </c>
       <c r="M16" s="5" t="n">
         <v>9105</v>
@@ -8225,7 +8225,7 @@
         <v>0.9032523579336549</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6985809445677691</v>
+        <v>0.6916648601726171</v>
       </c>
       <c r="P16" s="6" t="n">
         <v>1</v>
@@ -8237,7 +8237,7 @@
         <v>22994</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>20839</v>
+        <v>20917</v>
       </c>
       <c r="T16" s="5" t="n">
         <v>23875</v>
@@ -8246,7 +8246,7 @@
         <v>0.9631029836039388</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8728190994109976</v>
+        <v>0.8760947412339858</v>
       </c>
       <c r="W16" s="6" t="n">
         <v>1</v>
@@ -8282,7 +8282,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2744</v>
+        <v>2807</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.09674764206634522</v>
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3014190554322294</v>
+        <v>0.3083351398273836</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2</v>
@@ -8303,7 +8303,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3036</v>
+        <v>2958</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03689701639606138</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1271809005890021</v>
+        <v>0.123905258766014</v>
       </c>
     </row>
     <row r="18">
@@ -8404,19 +8404,19 @@
         <v>47755</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>42524</v>
+        <v>43233</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>51070</v>
+        <v>51396</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.8615265515640167</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.7671493252402953</v>
+        <v>0.7799457287971597</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.9213315309630302</v>
+        <v>0.9272144039271533</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>93</v>
@@ -8425,19 +8425,19 @@
         <v>48632</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>45124</v>
+        <v>44461</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>50982</v>
+        <v>50845</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.9083544580370171</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.8428202857537874</v>
+        <v>0.8304369761773728</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.9522353758716672</v>
+        <v>0.9496787480367991</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>163</v>
@@ -8446,19 +8446,19 @@
         <v>96388</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>90558</v>
+        <v>90698</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>100538</v>
+        <v>100455</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.8845338739858978</v>
+        <v>0.8845338739858976</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.8310364992529674</v>
+        <v>0.8323214158551501</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.9226226634824778</v>
+        <v>0.9218619482196724</v>
       </c>
     </row>
     <row r="20">
@@ -8475,19 +8475,19 @@
         <v>7676</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4361</v>
+        <v>4035</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>12907</v>
+        <v>12198</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1384734484359833</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0786684690369697</v>
+        <v>0.07278559607284643</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2328506747597048</v>
+        <v>0.2200542712028397</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>11</v>
@@ -8496,19 +8496,19 @@
         <v>4907</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2557</v>
+        <v>2694</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>8415</v>
+        <v>9078</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.09164554196298288</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04776462412833272</v>
+        <v>0.05032125196320106</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1571797142462122</v>
+        <v>0.1695630238226276</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>24</v>
@@ -8517,19 +8517,19 @@
         <v>12582</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>8432</v>
+        <v>8515</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>18412</v>
+        <v>18272</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1154661260141024</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.07737733651752177</v>
+        <v>0.07813805178032757</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1689635007470325</v>
+        <v>0.16767858414485</v>
       </c>
     </row>
     <row r="21">
@@ -8621,19 +8621,19 @@
         <v>127859</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>121084</v>
+        <v>119569</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>132435</v>
+        <v>131948</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.9432999818772178</v>
+        <v>0.943299981877218</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8933164640079142</v>
+        <v>0.8821439946780611</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9770615459505486</v>
+        <v>0.9734720224801492</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>203</v>
@@ -8642,19 +8642,19 @@
         <v>167239</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>158918</v>
+        <v>159626</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>174056</v>
+        <v>173680</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8963650768693111</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8517621158532416</v>
+        <v>0.8555589225697416</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9329007070313592</v>
+        <v>0.9308877050564659</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>305</v>
@@ -8663,19 +8663,19 @@
         <v>295098</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>284231</v>
+        <v>284923</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>303047</v>
+        <v>303271</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.9161147937239084</v>
+        <v>0.9161147937239082</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8823789931246248</v>
+        <v>0.8845282359969249</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9407905757450156</v>
+        <v>0.9414886821762686</v>
       </c>
     </row>
     <row r="23">
@@ -8692,19 +8692,19 @@
         <v>7685</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3109</v>
+        <v>3596</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>14460</v>
+        <v>15975</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.05670001812278202</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.02293845404945157</v>
+        <v>0.02652797751985058</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1066835359920859</v>
+        <v>0.1178560053219373</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>26</v>
@@ -8713,19 +8713,19 @@
         <v>19336</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>12519</v>
+        <v>12895</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>27657</v>
+        <v>26949</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1036349231306888</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.06709929296864074</v>
+        <v>0.06911229494353419</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.148237884146758</v>
+        <v>0.1444410774302584</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>33</v>
@@ -8734,19 +8734,19 @@
         <v>27021</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>19072</v>
+        <v>18848</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>37888</v>
+        <v>37196</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.08388520627609181</v>
+        <v>0.08388520627609179</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.05920942425498452</v>
+        <v>0.05851131782373126</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1176210068753755</v>
+        <v>0.115471764003075</v>
       </c>
     </row>
     <row r="24">
@@ -8838,19 +8838,19 @@
         <v>59954</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>53076</v>
+        <v>52666</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>64454</v>
+        <v>64040</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.8789303212368289</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.7780878412083337</v>
+        <v>0.7720809888117873</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.9448907741484281</v>
+        <v>0.9388234419030829</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>83</v>
@@ -8859,19 +8859,19 @@
         <v>61984</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>54258</v>
+        <v>53402</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>69532</v>
+        <v>69271</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.7078529460810228</v>
+        <v>0.707852946081023</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.6196205200197429</v>
+        <v>0.6098464621954215</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.7940517802310325</v>
+        <v>0.7910672748819041</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>140</v>
@@ -8880,19 +8880,19 @@
         <v>121938</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>111108</v>
+        <v>109830</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>131204</v>
+        <v>130819</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.7827646504437613</v>
+        <v>0.7827646504437611</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.7132421457934006</v>
+        <v>0.7050382811851191</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.8422423010618501</v>
+        <v>0.8397699230879744</v>
       </c>
     </row>
     <row r="26">
@@ -8909,19 +8909,19 @@
         <v>8259</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3759</v>
+        <v>4173</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>15137</v>
+        <v>15547</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1210696787631711</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.05510922585157183</v>
+        <v>0.0611765580969169</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2219121587916674</v>
+        <v>0.2279190111882124</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>30</v>
@@ -8930,19 +8930,19 @@
         <v>25582</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>18034</v>
+        <v>18295</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>33308</v>
+        <v>34164</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.2921470539189769</v>
+        <v>0.292147053918977</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2059482197689674</v>
+        <v>0.2089327251180959</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3803794799802577</v>
+        <v>0.3901535378045785</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>39</v>
@@ -8951,19 +8951,19 @@
         <v>33841</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>24575</v>
+        <v>24960</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>44671</v>
+        <v>45949</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.2172353495562389</v>
+        <v>0.2172353495562388</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1577576989381498</v>
+        <v>0.1602300769120259</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2867578542065995</v>
+        <v>0.294961718814881</v>
       </c>
     </row>
     <row r="27">
@@ -9055,19 +9055,19 @@
         <v>479112</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>462088</v>
+        <v>461529</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>492095</v>
+        <v>492125</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.9078111572593979</v>
+        <v>0.9078111572593981</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.8755538985533571</v>
+        <v>0.8744947821600961</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.9324118169035517</v>
+        <v>0.9324685770339347</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>828</v>
@@ -9076,19 +9076,19 @@
         <v>580454</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>562511</v>
+        <v>559623</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>595883</v>
+        <v>594694</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.8608644646372262</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.8342526699330572</v>
+        <v>0.8299694039945383</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.8837466341195492</v>
+        <v>0.8819830335530358</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1288</v>
@@ -9097,19 +9097,19 @@
         <v>1059567</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1033566</v>
+        <v>1034390</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1082093</v>
+        <v>1080261</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.8814769029678347</v>
+        <v>0.8814769029678348</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.8598464140851652</v>
+        <v>0.8605313876107855</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.9002167618153917</v>
+        <v>0.8986928723865755</v>
       </c>
     </row>
     <row r="29">
@@ -9126,19 +9126,19 @@
         <v>48654</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>35671</v>
+        <v>35641</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>65678</v>
+        <v>66237</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.09218884274060209</v>
+        <v>0.0921888427406021</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.06758818309644843</v>
+        <v>0.06753142296606517</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.124446101446643</v>
+        <v>0.1255052178399039</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>130</v>
@@ -9147,19 +9147,19 @@
         <v>93815</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>78386</v>
+        <v>79575</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>111758</v>
+        <v>114646</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1391355353627737</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1162533658804508</v>
+        <v>0.1180169664469642</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1657473300669426</v>
+        <v>0.1700305960054614</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>179</v>
@@ -9168,19 +9168,19 @@
         <v>142469</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>119943</v>
+        <v>121775</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>168470</v>
+        <v>167646</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1185230970321652</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.09978323818460837</v>
+        <v>0.1013071276134246</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1401535859148347</v>
+        <v>0.1394686123892144</v>
       </c>
     </row>
     <row r="30">
